--- a/src/test/resources/datafile.xlsx
+++ b/src/test/resources/datafile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauravgupta16\Downloads\Exit Test Automation\Solution\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77B30C5-B7A7-435E-AB98-D1CD05AD51F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ADABFD-012C-447A-91BB-7573EE4F6468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1780" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestExecutor" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/datafile.xlsx
+++ b/src/test/resources/datafile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauravgupta16\Downloads\Exit Test Automation\Solution\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ADABFD-012C-447A-91BB-7573EE4F6468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5278842-5FB6-4ED3-981B-38CD8B0D4166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="1780" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
